--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -91,7 +91,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -101,13 +101,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Collections" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Titles">'Collections'!$A$1:$A$1,'Collections'!$C$1:$H$1,'Collections'!$A$6:$D$6,'Collections'!$F$6:$H$6</x:definedName>
+    <x:definedName name="Titles">Collections!$A$1:$A$1,Collections!$C$1:$H$1,Collections!$A$6:$D$6,Collections!$F$6:$H$6</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -175,7 +175,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -458,7 +458,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -118,7 +118,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -140,7 +140,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -148,9 +148,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.970625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.610625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.890625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.220625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="2.700625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="5.050625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="2.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">
